--- a/D3/Sprint #1 Burndown Chart.xlsx
+++ b/D3/Sprint #1 Burndown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanson\Desktop\Homework\University\CSCC01\team14-course-project\D3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\GitHub\team14-course-project\D3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,7 +171,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -487,11 +487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426545968"/>
-        <c:axId val="426546360"/>
+        <c:axId val="221570992"/>
+        <c:axId val="221570432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426545968"/>
+        <c:axId val="221570992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +549,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -587,10 +587,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426546360"/>
+        <c:crossAx val="221570432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426546360"/>
+        <c:axId val="221570432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +675,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -707,10 +707,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426545968"/>
+        <c:crossAx val="221570992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -750,7 +750,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -780,7 +780,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1635,16 +1635,16 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1655,24 +1655,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>(104/14)*(14-A2)</f>
+        <f t="shared" ref="B2:B16" si="0">(104/14)*(14-A2)</f>
         <v>104</v>
       </c>
       <c r="C2">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f>(104/14)*(14-A3)</f>
+        <f t="shared" si="0"/>
         <v>96.571428571428569</v>
       </c>
       <c r="C3">
@@ -1680,12 +1680,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>(104/14)*(14-A4)</f>
+        <f t="shared" si="0"/>
         <v>89.142857142857139</v>
       </c>
       <c r="C4">
@@ -1693,12 +1693,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f>(104/14)*(14-A5)</f>
+        <f t="shared" si="0"/>
         <v>81.714285714285722</v>
       </c>
       <c r="C5">
@@ -1706,12 +1706,12 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f>(104/14)*(14-A6)</f>
+        <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
       <c r="C6">
@@ -1719,12 +1719,12 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f>(104/14)*(14-A7)</f>
+        <f t="shared" si="0"/>
         <v>66.857142857142861</v>
       </c>
       <c r="C7">
@@ -1732,12 +1732,12 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f>(104/14)*(14-A8)</f>
+        <f t="shared" si="0"/>
         <v>59.428571428571431</v>
       </c>
       <c r="C8">
@@ -1745,12 +1745,12 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f>(104/14)*(14-A9)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C9">
@@ -1758,12 +1758,12 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f>(104/14)*(14-A10)</f>
+        <f t="shared" si="0"/>
         <v>44.571428571428569</v>
       </c>
       <c r="C10">
@@ -1771,12 +1771,12 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f>(104/14)*(14-A11)</f>
+        <f t="shared" si="0"/>
         <v>37.142857142857146</v>
       </c>
       <c r="C11">
@@ -1784,12 +1784,12 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f>(104/14)*(14-A12)</f>
+        <f t="shared" si="0"/>
         <v>29.714285714285715</v>
       </c>
       <c r="C12">
@@ -1797,12 +1797,12 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f>(104/14)*(14-A13)</f>
+        <f t="shared" si="0"/>
         <v>22.285714285714285</v>
       </c>
       <c r="C13">
@@ -1810,12 +1810,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f>(104/14)*(14-A14)</f>
+        <f t="shared" si="0"/>
         <v>14.857142857142858</v>
       </c>
       <c r="C14">
@@ -1823,12 +1823,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f>(104/14)*(14-A15)</f>
+        <f t="shared" si="0"/>
         <v>7.4285714285714288</v>
       </c>
       <c r="C15">
@@ -1836,12 +1836,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <f>(104/14)*(14-A16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16">

--- a/D3/Sprint #1 Burndown Chart.xlsx
+++ b/D3/Sprint #1 Burndown Chart.xlsx
@@ -470,7 +470,7 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,11 +487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426545968"/>
-        <c:axId val="426546360"/>
+        <c:axId val="197525376"/>
+        <c:axId val="197527336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426545968"/>
+        <c:axId val="197525376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +590,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426546360"/>
+        <c:crossAx val="197527336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426546360"/>
+        <c:axId val="197527336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +710,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426545968"/>
+        <c:crossAx val="197525376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>(104/14)*(14-A2)</f>
+        <f t="shared" ref="B2:B16" si="0">(104/14)*(14-A2)</f>
         <v>104</v>
       </c>
       <c r="C2">
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>(104/14)*(14-A3)</f>
+        <f t="shared" si="0"/>
         <v>96.571428571428569</v>
       </c>
       <c r="C3">
@@ -1685,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>(104/14)*(14-A4)</f>
+        <f t="shared" si="0"/>
         <v>89.142857142857139</v>
       </c>
       <c r="C4">
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>(104/14)*(14-A5)</f>
+        <f t="shared" si="0"/>
         <v>81.714285714285722</v>
       </c>
       <c r="C5">
@@ -1711,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>(104/14)*(14-A6)</f>
+        <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
       <c r="C6">
@@ -1724,7 +1724,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>(104/14)*(14-A7)</f>
+        <f t="shared" si="0"/>
         <v>66.857142857142861</v>
       </c>
       <c r="C7">
@@ -1737,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>(104/14)*(14-A8)</f>
+        <f t="shared" si="0"/>
         <v>59.428571428571431</v>
       </c>
       <c r="C8">
@@ -1750,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>(104/14)*(14-A9)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C9">
@@ -1763,7 +1763,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>(104/14)*(14-A10)</f>
+        <f t="shared" si="0"/>
         <v>44.571428571428569</v>
       </c>
       <c r="C10">
@@ -1776,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>(104/14)*(14-A11)</f>
+        <f t="shared" si="0"/>
         <v>37.142857142857146</v>
       </c>
       <c r="C11">
@@ -1789,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>(104/14)*(14-A12)</f>
+        <f t="shared" si="0"/>
         <v>29.714285714285715</v>
       </c>
       <c r="C12">
@@ -1802,7 +1802,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f>(104/14)*(14-A13)</f>
+        <f t="shared" si="0"/>
         <v>22.285714285714285</v>
       </c>
       <c r="C13">
@@ -1815,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f>(104/14)*(14-A14)</f>
+        <f t="shared" si="0"/>
         <v>14.857142857142858</v>
       </c>
       <c r="C14">
@@ -1828,7 +1828,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f>(104/14)*(14-A15)</f>
+        <f t="shared" si="0"/>
         <v>7.4285714285714288</v>
       </c>
       <c r="C15">
@@ -1841,12 +1841,12 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f>(104/14)*(14-A16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>C15-3</f>
-        <v>64</v>
+        <f>C15-5.5</f>
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/D3/Sprint #1 Burndown Chart.xlsx
+++ b/D3/Sprint #1 Burndown Chart.xlsx
@@ -470,7 +470,7 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.5</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,11 +487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197525376"/>
-        <c:axId val="197527336"/>
+        <c:axId val="164768792"/>
+        <c:axId val="164767224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197525376"/>
+        <c:axId val="164768792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +590,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197527336"/>
+        <c:crossAx val="164767224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197527336"/>
+        <c:axId val="164767224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +710,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197525376"/>
+        <c:crossAx val="164768792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1845,13 +1845,14 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <f>C15-5.5</f>
-        <v>61.5</v>
+        <f>C15-10.5</f>
+        <v>56.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>